--- a/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001 - Copy.xlsx
+++ b/Tables/Table4_T1EandPower_Binary_Simulated_Prevalence001 - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aarhus\Courses\Thesis\An-evaluation-of-software-for-performing-GWAS-mixed-model-association-analysis\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124946DA-D8D6-457F-B809-7E49EA0F9C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2629DDB2-AEFA-4B1A-8400-F2E03BF18C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1130" windowWidth="21550" windowHeight="12550" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="4" r:id="rId1"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1262,9 +1262,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.79154451344127397</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E2">
+        <v>1E-3</v>
+      </c>
+      <c r="F2">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1273,7 +1291,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.91123966442244098</v>
+      </c>
+      <c r="D3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.25517332032010798</v>
+      </c>
+      <c r="H3">
+        <v>1.0505144995322699</v>
+      </c>
+      <c r="I3">
+        <v>43</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1282,7 +1320,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.56359363786510197</v>
+      </c>
+      <c r="D4">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>1E-3</v>
+      </c>
+      <c r="F4">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.3737680646109103E-4</v>
+      </c>
+      <c r="H4">
+        <v>1.15154349859682</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1291,8 +1349,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E5">
+        <v>1E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H5">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I5">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1301,7 +1378,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.68570523039147602</v>
+      </c>
+      <c r="D6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.69687816793850199</v>
+      </c>
+      <c r="H6">
+        <v>1.0177736202058001</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1310,12 +1407,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.79041660922405854</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>4.3399999999999994E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6417640504308282</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.47654673232562461</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0370439663236664</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>43.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1324,8 +1443,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.79154451344127397</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>1E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.6055895168665499</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98266658961540398</v>
+      </c>
+      <c r="H8">
+        <v>1.00187090739008</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1334,7 +1472,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.91123966442244098</v>
+      </c>
+      <c r="D9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.58800300537146</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.22146296321421599</v>
+      </c>
+      <c r="H9">
+        <v>1.0542563143124399</v>
+      </c>
+      <c r="I9">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1343,8 +1501,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.49095324659704997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E10">
+        <v>1E-3</v>
+      </c>
+      <c r="F10">
+        <v>1.6464969756479899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6.8496998830800196E-4</v>
+      </c>
+      <c r="H10">
+        <v>1.1524789522918599</v>
+      </c>
+      <c r="I10">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1353,9 +1530,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E11">
+        <v>1E-3</v>
+      </c>
+      <c r="F11">
+        <v>1.67487441117479</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.42994479656305201</v>
+      </c>
+      <c r="H11">
+        <v>0.96538821328344204</v>
+      </c>
+      <c r="I11">
+        <v>47</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1364,8 +1559,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.614572285170356</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.5E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.69385634309335</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.82835769152208305</v>
+      </c>
+      <c r="H12">
+        <v>1.0102899906454601</v>
+      </c>
+      <c r="I12">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1374,12 +1588,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.76166194192622416</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>4.3799999999999992E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6417640504308282</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49262340218061257</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0368568755846563</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>43.8</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1388,7 +1624,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.17943190973928599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.3709161928357001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1397,7 +1653,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>9.3032288049578905E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.2536492608887599</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.34322197054583E-79</v>
+      </c>
+      <c r="H15">
+        <v>0.33395696913002798</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1406,153 +1682,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.14933428547371899</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.37068667678901</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.9802271799692202E-51</v>
+      </c>
+      <c r="H16">
+        <v>0.44901777362020601</v>
+      </c>
+      <c r="I16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>6.2953999396647503E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.4404089874982899</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.9048980227775899E-50</v>
+      </c>
+      <c r="H17">
+        <v>0.452759588400374</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>3.8792574678695103E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.4623828724946499</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.1289095785102098E-37</v>
+      </c>
+      <c r="H18">
+        <v>0.52011225444340503</v>
+      </c>
+      <c r="I18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>8.79631996186611E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>2.4399999999999998E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3796087981012819</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>6.257878309903267E-38</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44957904583723102</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>1E-3</v>
+      </c>
+      <c r="F20">
+        <v>1.56320660954959</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.2934595092886499E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.86529466791393805</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.5397105925405701</v>
+      </c>
+      <c r="G21">
+        <v>2.8355322224151002E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.87464920486435904</v>
+      </c>
+      <c r="I21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <v>1E-3</v>
+      </c>
+      <c r="F22">
+        <v>1.6029456168516001</v>
+      </c>
+      <c r="G22">
+        <v>0.121822364091836</v>
+      </c>
+      <c r="H22">
+        <v>0.93358278765201097</v>
+      </c>
+      <c r="I22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E23">
+        <v>1E-3</v>
+      </c>
+      <c r="F23">
+        <v>1.6394099857290101</v>
+      </c>
+      <c r="G23">
+        <v>2.0781868686943399E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.84565014031805397</v>
+      </c>
+      <c r="I23">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.65187415811897</v>
+      </c>
+      <c r="G24">
+        <v>6.5732897026523296E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92142188961646398</v>
+      </c>
+      <c r="I24">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>4.02E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.5994293925579481</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>3.8378414307386491E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.88811973807296529</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.4845520310342499</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.0405304851642601E-8</v>
+      </c>
+      <c r="H26">
+        <v>0.77174929840972895</v>
+      </c>
+      <c r="I26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.48007131672429398</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.4579850049794001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>6.4236896788605E-9</v>
+      </c>
+      <c r="H27">
+        <v>0.76426566884939195</v>
+      </c>
+      <c r="I27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.5288211982089299</v>
+      </c>
+      <c r="G28">
+        <v>2.0470662998592699E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.90177736202058001</v>
+      </c>
+      <c r="I28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.66446262818437896</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.5425541679978501</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.5466240972055398E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.76052385406922396</v>
+      </c>
+      <c r="I29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.59354511204162796</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.5452487782037401</v>
+      </c>
+      <c r="G30" s="1">
+        <v>6.7550657911559394E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73713751169317099</v>
+      </c>
+      <c r="I30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.74761581139006028</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>1.511832236084834</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>4.0941386883523974E-3</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78709073900841919</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>36.799999999999997</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1565,7 +2171,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1622,9 +2228,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.52447659849247297</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H2">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I2">
+        <v>106</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1633,7 +2257,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.63283973219442202</v>
+      </c>
+      <c r="D3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H3">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I3">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1642,7 +2286,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.61711081787069899</v>
+      </c>
+      <c r="D4">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H4">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I4">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1651,8 +2315,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D5">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H5">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I5">
+        <v>89</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1670,12 +2353,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.49919649263573923</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.99372090205427699</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.35696673084607444</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0711095055683029</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>95.25</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1684,8 +2389,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.52447659849247297</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.0067824218291801</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.91333641926778497</v>
+      </c>
+      <c r="H8">
+        <v>0.99438727782974701</v>
+      </c>
+      <c r="I8">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1694,7 +2418,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.63283973219442202</v>
+      </c>
+      <c r="D9">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0003317145024699</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.51130272556024003</v>
+      </c>
+      <c r="H9">
+        <v>0.97100093545369504</v>
+      </c>
+      <c r="I9">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1703,8 +2447,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.61711081787069899</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.03E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.97378768758197098</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.3345130582295302E-5</v>
+      </c>
+      <c r="H10">
+        <v>1.18715083798883</v>
+      </c>
+      <c r="I10">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1713,9 +2476,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.99398178430348705</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.1944334256904399E-3</v>
+      </c>
+      <c r="H11">
+        <v>1.1318989710009399</v>
+      </c>
+      <c r="I11">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1734,12 +2515,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.49919649263573923</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>9.5250000000000005E-3</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>7.5000000000000007E-5</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99372090205427699</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.35696673084607444</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0711095055683029</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>95.25</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1748,7 +2551,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>3.6977184311796198E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.92469190579736904</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.2683450158440701E-32</v>
+      </c>
+      <c r="H14">
+        <v>0.548175865294668</v>
+      </c>
+      <c r="I14">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1757,7 +2580,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="1">
+        <v>5.4863872959288697E-5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.84715639339529103</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5.68065506144431E-59</v>
+      </c>
+      <c r="H15">
+        <v>0.412535079513564</v>
+      </c>
+      <c r="I15">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1766,153 +2609,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>7.9902989537401596E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.93326159428509503</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.23853799855823E-29</v>
+      </c>
+      <c r="H16">
+        <v>0.56782039289055197</v>
+      </c>
+      <c r="I16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>2.9825759558790399E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.93626315515866598</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5.2165322743130598E-28</v>
+      </c>
+      <c r="H17">
+        <v>0.57904583723105696</v>
+      </c>
+      <c r="I17">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>6.7863166081435803E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.89033979747401903</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H18">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>4.3023547643803381E-3</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.906342569222088</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.068102581734555E-28</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52198316183348925</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.99570908523872403</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.23926072439522E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.89429373246024302</v>
+      </c>
+      <c r="I20">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.97010596995238496</v>
+      </c>
+      <c r="G21">
+        <v>5.89092024478193E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.88400374181478003</v>
+      </c>
+      <c r="I21">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.995401339624014</v>
+      </c>
+      <c r="G22">
+        <v>8.8241539543085001E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.92703461178671698</v>
+      </c>
+      <c r="I22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F23">
+        <v>1.00072742284509</v>
+      </c>
+      <c r="G23">
+        <v>6.0895602301717098E-4</v>
+      </c>
+      <c r="H23">
+        <v>0.85687558465855895</v>
+      </c>
+      <c r="I23">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0.98395619140759105</v>
+      </c>
+      <c r="G24">
+        <v>7.6320767673364404E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92422825070158998</v>
+      </c>
+      <c r="I24">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>9.1199999999999996E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98918000181356081</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>3.6690958145640142E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89728718428437781</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.25609237419259601</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.92887053779888895</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.7247148927708599E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.71749298409728701</v>
+      </c>
+      <c r="I26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.30707339184333199</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.908510089721696</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4.7217937948198601E-8</v>
+      </c>
+      <c r="H27">
+        <v>0.77736202057998105</v>
+      </c>
+      <c r="I27">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.50040056935615795</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.92708078211215805</v>
+      </c>
+      <c r="G28" s="1">
+        <v>4.7795362772172496E-9</v>
+      </c>
+      <c r="H28">
+        <v>0.76239476145930796</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>6.6959934915586702E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.93199792994735697</v>
+      </c>
+      <c r="G29" s="1">
+        <v>7.6602226141759695E-10</v>
+      </c>
+      <c r="H29">
+        <v>0.75116931711880297</v>
+      </c>
+      <c r="I29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>6.2984648155535103E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.90614680145822701</v>
+      </c>
+      <c r="G30" s="1">
+        <v>4.1185770331466603E-9</v>
+      </c>
+      <c r="H30">
+        <v>0.76145930776426596</v>
+      </c>
+      <c r="I30">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.23870218369264157</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>7.3600000000000002E-3</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.92052122820766535</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1376759646974577E-8</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.75397567820392908</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>73.599999999999994</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1926,7 +3099,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1983,9 +3156,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.197464149714217</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F2">
+        <v>1.03890365651894</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.74530314063014402</v>
+      </c>
+      <c r="H2">
+        <v>1.01496725912067</v>
+      </c>
+      <c r="I2">
+        <v>108</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1994,7 +3185,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>6.8399238241671295E-2</v>
+      </c>
+      <c r="D3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.03508509884115</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9.5865677541506905E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.07390084190833</v>
+      </c>
+      <c r="I3">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2003,7 +3214,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.53240073041740699</v>
+      </c>
+      <c r="D4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7.6725802197194395E-2</v>
+      </c>
+      <c r="H4">
+        <v>1.0785781103835399</v>
+      </c>
+      <c r="I4">
+        <v>110</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2012,8 +3243,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.47619580331016398</v>
+      </c>
+      <c r="D5">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H5">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I5">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2022,7 +3272,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.235563555144713</v>
+      </c>
+      <c r="D6">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H6">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I6">
+        <v>126</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2031,12 +3301,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.30200469536563446</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.1140000000000001E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0340426819921018</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.40009084735381445</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0445275958840039</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>111.4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2045,8 +3337,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.222358821985363</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F8">
+        <v>1.03890365651894</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.86223748987700699</v>
+      </c>
+      <c r="H8">
+        <v>1.0084190832553801</v>
+      </c>
+      <c r="I8">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2055,7 +3366,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>7.94218227497695E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.03508509884115</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I9">
+        <v>107</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2064,8 +3395,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.53240073041740699</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0404442883951099</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8.0278552304675302E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.07764265668849</v>
+      </c>
+      <c r="I10">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2074,9 +3424,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.43436976365621399</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.01741049481501</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.60399049757861401</v>
+      </c>
+      <c r="H11">
+        <v>1.0233863423760501</v>
+      </c>
+      <c r="I11">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2085,8 +3453,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.235563555144713</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.0383698713903</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H12">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I12">
+        <v>126</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2095,12 +3482,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.30082293879069333</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.112E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0340426819921018</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.41805553659518191</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0439663236669758</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>111.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2109,7 +3518,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>3.2023309361292498E-3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5.3E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.93493985730561502</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.9573699193055501E-36</v>
+      </c>
+      <c r="H14">
+        <v>0.52478952291861602</v>
+      </c>
+      <c r="I14">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2118,7 +3547,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.112045876817773</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.935805986398344</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4.9332316516773E-46</v>
+      </c>
+      <c r="H15">
+        <v>0.47240411599625798</v>
+      </c>
+      <c r="I15">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2127,153 +3576,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>3.5133663574624802E-3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.94349564895931204</v>
+      </c>
+      <c r="G16" s="1">
+        <v>7.0786907158882396E-35</v>
+      </c>
+      <c r="H16">
+        <v>0.53414405986903601</v>
+      </c>
+      <c r="I16">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1.2712509110704101E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.89047564335599205</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.5885879455001001E-60</v>
+      </c>
+      <c r="H17">
+        <v>0.405986903648269</v>
+      </c>
+      <c r="I17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.2569157220194999E-3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.93719756107607</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.5748447319645101E-38</v>
+      </c>
+      <c r="H18">
+        <v>0.51262862488306804</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>2.6546199788817663E-2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92838293941906669</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.4552005105200184E-35</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48999064546304949</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0260884184722401</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.16449130087843</v>
+      </c>
+      <c r="H20">
+        <v>0.94013096351730596</v>
+      </c>
+      <c r="I20">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.99273320234663898</v>
+      </c>
+      <c r="G21">
+        <v>1.3226290113253601E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.89522918615528502</v>
+      </c>
+      <c r="I21">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0265096127665201</v>
+      </c>
+      <c r="G22">
+        <v>0.32280671466855199</v>
+      </c>
+      <c r="H22">
+        <v>0.95696913002806405</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.00782308174915</v>
+      </c>
+      <c r="G23">
+        <v>2.0470662998592699E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.90177736202058001</v>
+      </c>
+      <c r="I23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.02517268262783</v>
+      </c>
+      <c r="G24">
+        <v>7.6320767673364404E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.92422825070158998</v>
+      </c>
+      <c r="I24">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0156653995924758</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11946314726643852</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.92366697848456492</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.34820519433175801</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.6E-3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F26">
+        <v>0.96037678349876099</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5.4179427920287697E-8</v>
+      </c>
+      <c r="H26">
+        <v>0.77829747427502305</v>
+      </c>
+      <c r="I26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.81620148462872499</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8.6E-3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0.92967349563536095</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.0520824614385601E-7</v>
+      </c>
+      <c r="H27">
+        <v>0.79045837231057103</v>
+      </c>
+      <c r="I27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.30109209552674499</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.95330769654733005</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.06712700649532E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78297474275023404</v>
+      </c>
+      <c r="I28">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.14099992658476199</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.92529502609560299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.2555536266561302E-9</v>
+      </c>
+      <c r="H29">
+        <v>0.75771749298409696</v>
+      </c>
+      <c r="I29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.06E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0.96078826477874901</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2.7977755871413598E-6</v>
+      </c>
+      <c r="H30">
+        <v>0.80729653882132801</v>
+      </c>
+      <c r="I30">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.52129974021439796</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>8.5400000000000007E-3</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94588825331116089</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>6.5322630309633831E-7</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78334892422825064</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>85.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2285,8 +4064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7D0F4A-07C1-43A2-AEDC-E0CA256A5518}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2343,9 +4122,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.47094488038371402</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H2">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I2">
+        <v>147</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2354,7 +4151,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.16393441432603001</v>
+      </c>
+      <c r="D3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.0009354536950399</v>
+      </c>
+      <c r="I3">
+        <v>138</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2363,7 +4180,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>0.49290868899020102</v>
+      </c>
+      <c r="D4">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H4">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I4">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -2372,8 +4209,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H5">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I5">
+        <v>113</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -2382,7 +4238,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.29977455836874001</v>
+      </c>
+      <c r="D6">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F6">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.51734073103997702</v>
+      </c>
+      <c r="H6">
+        <v>1.0289990645463001</v>
+      </c>
+      <c r="I6">
+        <v>129</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -2391,12 +4267,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.485512508413737</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.2799999999999997E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.075161313418596</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.61897720439914339</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0231992516370418</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -2405,8 +4303,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.50795439676155196</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.0938497551292601</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.55982310219123799</v>
+      </c>
+      <c r="H8">
+        <v>1.02619270346118</v>
+      </c>
+      <c r="I8">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -2415,7 +4332,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.22656793829247801</v>
+      </c>
+      <c r="D9">
+        <v>1.35E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.0817879951832501</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.89606982450870598</v>
+      </c>
+      <c r="H9">
+        <v>0.99345182413470501</v>
+      </c>
+      <c r="I9">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -2424,8 +4361,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>0.49290868899020102</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0512652398744899</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.61906702548928905</v>
+      </c>
+      <c r="H10">
+        <v>1.02245088868101</v>
+      </c>
+      <c r="I10">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -2434,9 +4390,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.0831728532106999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.41300861775629299</v>
+      </c>
+      <c r="H11">
+        <v>1.0364826941066401</v>
+      </c>
+      <c r="I11">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -2445,8 +4419,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.29977455836874001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F12">
+        <v>1.06573072369528</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.54546964771015805</v>
+      </c>
+      <c r="H12">
+        <v>1.0271281571562201</v>
+      </c>
+      <c r="I12">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -2455,12 +4448,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.50544111648259415</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.2719999999999999E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.075161313418596</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.6066876435311368</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0211412535079509</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>127.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2469,7 +4484,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>6.4302409065597997E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.96644099013353801</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.9576440853580099E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49204864359214201</v>
+      </c>
+      <c r="I14">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -2478,7 +4513,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>2.66117219762449E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.97718382548293004</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3.3079790150994601E-44</v>
+      </c>
+      <c r="H15">
+        <v>0.48175865294667902</v>
+      </c>
+      <c r="I15">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -2487,153 +4542,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1.40069885951526E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.918875727896029</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.7649612988770299E-72</v>
+      </c>
+      <c r="H16">
+        <v>0.35921421889616501</v>
+      </c>
+      <c r="I16">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>8.8906024051569698E-6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.92758028371984902</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.1228564111244701E-48</v>
+      </c>
+      <c r="H17">
+        <v>0.45930776426566899</v>
+      </c>
+      <c r="I17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>1.29585961521901E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.97833029620732603</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.3205795656707E-23</v>
+      </c>
+      <c r="H18">
+        <v>0.61178671655753003</v>
+      </c>
+      <c r="I18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>3.2571380062941758E-3</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>6.6999999999999994E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.9536822246879344</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6411591313414E-24</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48082319925163708</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.34E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.0801182276191501</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.185841935430725</v>
+      </c>
+      <c r="H20">
+        <v>0.94293732460243196</v>
+      </c>
+      <c r="I20">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1.15E-2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.06765240597401</v>
+      </c>
+      <c r="G21">
+        <v>1.64625845403201E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.86810102899906405</v>
+      </c>
+      <c r="I21">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0415902389096801</v>
+      </c>
+      <c r="G22">
+        <v>1.8111608677598302E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.89990645463049601</v>
+      </c>
+      <c r="I22">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.07606838234962</v>
+      </c>
+      <c r="G23">
+        <v>0.31205610411308998</v>
+      </c>
+      <c r="H23">
+        <v>0.95603367633302105</v>
+      </c>
+      <c r="I23">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1.12E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.0525894276804699</v>
+      </c>
+      <c r="G24">
+        <v>3.8739291974652403E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.912067352666043</v>
+      </c>
+      <c r="I24">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>1.15E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.063603736506586</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.11127903973001955</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.91580916744621133</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.279271232429737</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1.0105148239989901</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H26">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.51693767088300102</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.26E-2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1.0646040317874801</v>
+      </c>
+      <c r="G27">
+        <v>0.61515503238382696</v>
+      </c>
+      <c r="H27">
+        <v>0.97754911131899003</v>
+      </c>
+      <c r="I27">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.425047628617368</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.97287698399544398</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3.9436884521800902E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.79232927970065503</v>
+      </c>
+      <c r="I28">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.206349391485003</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.99822506742878803</v>
+      </c>
+      <c r="G29" s="1">
+        <v>4.1123944479397203E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77642656688493905</v>
+      </c>
+      <c r="I29">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.11E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="F30">
+        <v>0.99050418400700502</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.4017011410996503E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79700654817586503</v>
+      </c>
+      <c r="I30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.4855211846830218</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>1.0719999999999999E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0073450182435413</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.12303140918931277</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.82825070159027125</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>107.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11180,8 +13565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98613644-D52B-468D-B43A-F11B75F66227}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12024,7 +14409,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12081,9 +14466,27 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="C2" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.56955863245500604</v>
+      </c>
+      <c r="H2">
+        <v>0.97474275023386303</v>
+      </c>
+      <c r="I2">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -12092,7 +14495,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.46349259091093797</v>
+      </c>
+      <c r="H3">
+        <v>1.0327408793264701</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12101,7 +14524,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12110,8 +14553,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.36601735026573401</v>
+      </c>
+      <c r="H5">
+        <v>1.0402245088868101</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12120,7 +14582,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.50018425707079495</v>
+      </c>
+      <c r="D6">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H6">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12129,12 +14611,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.64355648624182871</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.054232564428067</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59075621933675759</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.004303086997193</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12143,8 +14647,27 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.05152578267194</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H8">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -12153,7 +14676,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>4.30164727651344E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1E-3</v>
+      </c>
+      <c r="F9">
+        <v>1.1027447651917399</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.476645580740444</v>
+      </c>
+      <c r="H9">
+        <v>1.03180542563143</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12162,8 +14705,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.0423220490957199</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12172,9 +14734,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>0.83729085068660702</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.98067488433004502</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.38907069193382998</v>
+      </c>
+      <c r="H11">
+        <v>1.0383536014967301</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12183,8 +14763,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.50018425707079495</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.09389534085089</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.55471252305211005</v>
+      </c>
+      <c r="H12">
+        <v>0.97380729653882103</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12193,12 +14792,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.64355648624182871</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.32E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.054232564428067</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.59502826375569884</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0035547240411602</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12207,7 +14828,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D14" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.97577967557718104</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5.9851280943155504E-29</v>
+      </c>
+      <c r="H14">
+        <v>0.57249766136576197</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12216,7 +14857,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.26569828674663598</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.94429982935788304</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.14209641005541E-43</v>
+      </c>
+      <c r="H15">
+        <v>0.48456501403180502</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12225,153 +14886,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.77216429012917298</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.93394142915156797</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.4915845934425501E-37</v>
+      </c>
+      <c r="H16">
+        <v>0.51824134705332103</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0.119937567799124</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.88983897963458203</v>
+      </c>
+      <c r="G17" s="1">
+        <v>3.40579685135288E-40</v>
+      </c>
+      <c r="H17">
+        <v>0.50327408793264705</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.57786102439231801</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.999798594478712</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.3793749066000097E-39</v>
+      </c>
+      <c r="H18">
+        <v>0.51075771749298404</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.47608814236240915</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.94873170163998533</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1970256220006805E-29</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51786716557530377</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.03848655115296</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.89092024478193E-3</v>
+      </c>
+      <c r="H20">
+        <v>0.88400374181478003</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.0022786712147</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.59321640140943E-5</v>
+      </c>
+      <c r="H21">
+        <v>0.82600561272216999</v>
+      </c>
+      <c r="I21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.0324292053573001</v>
+      </c>
+      <c r="G22">
+        <v>4.5628083782770702E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.91487371375116899</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.97078943417492403</v>
+      </c>
+      <c r="G23">
+        <v>0.111353849172696</v>
+      </c>
+      <c r="H23">
+        <v>0.93171188026192697</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.0757766499366099</v>
+      </c>
+      <c r="G24">
+        <v>1.23926072439522E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.89429373246024302</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>9.1999999999999981E-3</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0239521023672986</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>3.5058278521642984E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89017773620205776</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.47751167045609999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0.97248233752495605</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H26">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>0.801809439192952</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>1E-3</v>
+      </c>
+      <c r="F27">
+        <v>0.93946028105896895</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8.6355531707710792E-12</v>
+      </c>
+      <c r="H27">
+        <v>0.725912067352666</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0.96315742372127899</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.2196771598822899E-7</v>
+      </c>
+      <c r="H28">
+        <v>0.78391019644527604</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.64477954274479499</v>
+      </c>
+      <c r="D29" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.89813040977185299</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3.11324776359735E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77455565949485505</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.0165152464151299</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5.71328418813201E-11</v>
+      </c>
+      <c r="H30">
+        <v>0.73620205799812899</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.78482013047876942</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>7.3999999999999995E-3</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.95794913969843731</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>3.0634919514485073E-8</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>0.74929840972871842</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12384,7 +15375,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1048576"/>
+      <selection activeCell="C31" sqref="C31:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12452,7 +15443,27 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="C3">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3.9193851550857403E-2</v>
+      </c>
+      <c r="H3">
+        <v>1.0916744621141301</v>
+      </c>
+      <c r="I3">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -12461,7 +15472,27 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="C4">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5.3509053209922199E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.91768007483629599</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -12470,8 +15501,27 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H5">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I5">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -12480,7 +15530,27 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="C6">
+        <v>0.15058384626617299</v>
+      </c>
+      <c r="D6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1174062838645499E-6</v>
+      </c>
+      <c r="H6">
+        <v>1.2217025257249801</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -12489,12 +15559,34 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="C7" s="5">
+        <f>AVERAGE(C2:C6)</f>
+        <v>0.40240646486607767</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:I7" si="0">AVERAGE(D2:D6)</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1285726956106095</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.22188225146055809</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0608044901777389</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -12513,7 +15605,27 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="C9">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1.2806465063414401</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.1217210707453503E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.09073900841908</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -12522,8 +15634,27 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="C10">
+        <v>3.2760050788036201E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.89946411467944798</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.0765742856854E-2</v>
+      </c>
+      <c r="H10">
+        <v>0.91674462114125399</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -12532,9 +15663,27 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.3301786449406301</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.79482498367516896</v>
+      </c>
+      <c r="H11">
+        <v>1.0121608980355501</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -12543,8 +15692,27 @@
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="C12">
+        <v>0.15058384626617299</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1.00400151648092</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3.94987000040201E-6</v>
+      </c>
+      <c r="H12">
+        <v>1.20954162768943</v>
+      </c>
+      <c r="I12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -12553,12 +15721,34 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="5">
+        <f>AVERAGE(C8:C12)</f>
+        <v>0.40240646486607767</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:I13" si="1">AVERAGE(D8:D12)</f>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1285726956106095</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="1"/>
+        <v>0.22170297177736922</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0572965388213285</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -12567,7 +15757,27 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="C14">
+        <v>0.35497158559074798</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1.2071448422034099</v>
+      </c>
+      <c r="G14" s="1">
+        <v>9.8358102131533494E-42</v>
+      </c>
+      <c r="H14">
+        <v>0.49485500467726801</v>
+      </c>
+      <c r="I14">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -12576,7 +15786,27 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="C15">
+        <v>0.61386673304358697</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1.14056746750329</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8.3260551168577804E-36</v>
+      </c>
+      <c r="H15">
+        <v>0.52853133769878402</v>
+      </c>
+      <c r="I15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -12585,153 +15815,483 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>0.160454212492423</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1.1468308090917001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.3072760492465999E-40</v>
+      </c>
+      <c r="H16">
+        <v>0.50233863423760505</v>
+      </c>
+      <c r="I16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>0.74637322606283396</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1.25923141380694</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6.0332979645312598E-19</v>
+      </c>
+      <c r="H17">
+        <v>0.65107577174929798</v>
+      </c>
+      <c r="I17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>0.20680608875822201</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1.0839982494734199</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.46484012962348E-41</v>
+      </c>
+      <c r="H18">
+        <v>0.495790458372311</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.41649436918956279</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" ref="D19:I19" si="2">AVERAGE(D14:D18)</f>
+        <v>1.6800000000000002E-2</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1675545564157519</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>1.206659592906252E-19</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.53451824134705328</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="2"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.31938747724948</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.50159258380322E-2</v>
+      </c>
+      <c r="H20">
+        <v>0.89710009354536902</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.02</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.23111645135293</v>
+      </c>
+      <c r="G21">
+        <v>4.4251751658884401E-3</v>
+      </c>
+      <c r="H21">
+        <v>0.88026192703461204</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.27096159578506</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2.0982969503258501E-5</v>
+      </c>
+      <c r="H22">
+        <v>0.82413470533208599</v>
+      </c>
+      <c r="I22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1.3142099765649</v>
+      </c>
+      <c r="G23">
+        <v>8.4113399153058294E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.92609915809167398</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1.2420301061752901</v>
+      </c>
+      <c r="G24">
+        <v>0.15130421594920199</v>
+      </c>
+      <c r="H24">
+        <v>0.93826005612722196</v>
+      </c>
+      <c r="I24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="5">
+        <f>AVERAGE(C20:C24)</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" ref="D25:I25" si="3">AVERAGE(D20:D24)</f>
+        <v>2.3399999999999997E-2</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2755411214255321</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" si="3"/>
+        <v>5.0975939815136838E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="3"/>
+        <v>0.89317118802619255</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="3"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0.58442501090335597</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E26">
+        <v>1E-3</v>
+      </c>
+      <c r="F26">
+        <v>1.2446883810728999</v>
+      </c>
+      <c r="G26">
+        <v>0.138926815152151</v>
+      </c>
+      <c r="H26">
+        <v>0.93638914873713797</v>
+      </c>
+      <c r="I26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1.11432538520981E-42</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="E27">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F27">
+        <v>4.2029996938877199</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>21.296538821328301</v>
+      </c>
+      <c r="I27">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>0.45576600811933399</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="E28">
+        <v>1E-3</v>
+      </c>
+      <c r="F28">
+        <v>1.1691524964933999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5.5918255915872305E-10</v>
+      </c>
+      <c r="H28">
+        <v>0.74929840972871797</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>0.506841093185184</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1.21886016567303</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2.7061000728472501E-8</v>
+      </c>
+      <c r="H29">
+        <v>0.77362020579981305</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>0.88384131602239602</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1.14370290284423</v>
+      </c>
+      <c r="G30" s="1">
+        <v>8.3789983302807203E-7</v>
+      </c>
+      <c r="H30">
+        <v>0.79794200187090703</v>
+      </c>
+      <c r="I30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="5">
+        <f>AVERAGE(C26:C30)</f>
+        <v>0.48617468564605398</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" ref="D31:I31" si="4">AVERAGE(D26:D30)</f>
+        <v>6.1800000000000008E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="4"/>
+        <v>5.8000000000000005E-3</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7958807279942561</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="4"/>
+        <v>2.7785536134433457E-2</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9107577174929755</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="4"/>
+        <v>61.8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
